--- a/biology/Médecine/Affection_provoquée_par_les_poussières_de_bois/Affection_provoquée_par_les_poussières_de_bois.xlsx
+++ b/biology/Médecine/Affection_provoquée_par_les_poussières_de_bois/Affection_provoquée_par_les_poussières_de_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affection_provoqu%C3%A9e_par_les_poussi%C3%A8res_de_bois</t>
+          <t>Affection_provoquée_par_les_poussières_de_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une affection provoquée par les poussières de bois peut être reconnue comme maladie professionnelle en France et dans d'autres pays sous certaines conditions.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affection_provoqu%C3%A9e_par_les_poussi%C3%A8res_de_bois</t>
+          <t>Affection_provoquée_par_les_poussières_de_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Régime agricole
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Affection_provoquée_par_les_poussières_de_bois</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affection_provoqu%C3%A9e_par_les_poussi%C3%A8res_de_bois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
